--- a/TrainingScenarios.xlsx
+++ b/TrainingScenarios.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="3rdAug" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="132">
   <si>
     <t>PAS</t>
   </si>
@@ -155,26 +156,282 @@
     <t>Y</t>
   </si>
   <si>
+    <t>Bill Due date</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Execute batch in PAS and GB for member certificate enrollment</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Generate Bill</t>
+  </si>
+  <si>
+    <t>Paid To Date at Member certificate level</t>
+  </si>
+  <si>
+    <t>Paid to date at Group Product level</t>
+  </si>
+  <si>
+    <t>Regenerated Bill</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment </t>
+  </si>
+  <si>
+    <t>by Check at the doorstep</t>
+  </si>
+  <si>
+    <t>by EFT</t>
+  </si>
+  <si>
+    <t>by lockbox</t>
+  </si>
+  <si>
+    <t>Unallocated</t>
+  </si>
+  <si>
+    <t>Allocated</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Allocate at the same time</t>
+  </si>
+  <si>
+    <t>Wait for the remittance file</t>
+  </si>
+  <si>
+    <t>100 Member</t>
+  </si>
+  <si>
+    <t>50 m - $50
+50 m - $150</t>
+  </si>
+  <si>
+    <t>(Suspense)</t>
+  </si>
+  <si>
+    <t>Check1</t>
+  </si>
+  <si>
+    <t>Check2</t>
+  </si>
+  <si>
+    <t>Payment transactions</t>
+  </si>
+  <si>
+    <t>Check No</t>
+  </si>
+  <si>
+    <t>Unallocated amount</t>
+  </si>
+  <si>
+    <t>Allocated Amount</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Payment received</t>
+  </si>
+  <si>
+    <t>Payment applied</t>
+  </si>
+  <si>
+    <t>Reversed payment</t>
+  </si>
+  <si>
+    <t>returned payment</t>
+  </si>
+  <si>
+    <t>Group #</t>
+  </si>
+  <si>
     <t>G1</t>
   </si>
   <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>Bill/ invoice</t>
-  </si>
-  <si>
-    <t>Remittance file</t>
+    <t>payment transfer</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Payment allocated</t>
+  </si>
+  <si>
+    <t>Payment reverse</t>
+  </si>
+  <si>
+    <t>void refund</t>
+  </si>
+  <si>
+    <t>Bill amount</t>
+  </si>
+  <si>
+    <t>payment allocated</t>
+  </si>
+  <si>
+    <t>write off</t>
+  </si>
+  <si>
+    <t>Certificate Endorsement</t>
+  </si>
+  <si>
+    <t>Certificate Temination</t>
+  </si>
+  <si>
+    <t>30 days</t>
+  </si>
+  <si>
+    <t>30 days coverage</t>
+  </si>
+  <si>
+    <t>1 day coverage</t>
+  </si>
+  <si>
+    <t>Effective</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>8 days coverage</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Stages of Lapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Past due </t>
+  </si>
+  <si>
+    <t>Lapse Notice</t>
+  </si>
+  <si>
+    <t>1/1 - 1/31</t>
+  </si>
+  <si>
+    <t>2/1 - 2/28</t>
+  </si>
+  <si>
+    <t>3/1 - 3/31</t>
+  </si>
+  <si>
+    <t>Bill Periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send Date </t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>past due</t>
+  </si>
+  <si>
+    <t>45 days</t>
+  </si>
+  <si>
+    <t>15 days</t>
+  </si>
+  <si>
+    <t>Lapse notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lapse request </t>
+  </si>
+  <si>
+    <t>Lapse Request</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Currrent</t>
+  </si>
+  <si>
+    <t>Past</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>31st of Mar</t>
+  </si>
+  <si>
+    <t>Certificate Lapsed</t>
+  </si>
+  <si>
+    <t>Dues</t>
+  </si>
+  <si>
+    <t>To process reinstatement</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Reinstatement from 2/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case 2 </t>
+  </si>
+  <si>
+    <t>Reinstatement from 4/1</t>
+  </si>
+  <si>
+    <t>case 3</t>
+  </si>
+  <si>
+    <t>Reinstatement from 1/1</t>
+  </si>
+  <si>
+    <t>200 (100 for Apr and 100 for May)</t>
+  </si>
+  <si>
+    <t>Interest of these 3 months</t>
+  </si>
+  <si>
+    <t>Interest of these 2 months</t>
+  </si>
+  <si>
+    <t>30th Mar</t>
+  </si>
+  <si>
+    <t>1st may - next lapse request</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +453,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +481,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -229,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -244,6 +515,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,37 +909,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:M28"/>
+  <dimension ref="C3:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -751,12 +1044,6 @@
       <c r="H15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="16" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
@@ -768,36 +1055,21 @@
       <c r="G16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E20" s="3" t="s">
         <v>33</v>
       </c>
@@ -808,7 +1080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E21" s="3" t="s">
         <v>34</v>
       </c>
@@ -817,7 +1089,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E22" s="4" t="s">
         <v>41</v>
       </c>
@@ -828,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
         <v>1</v>
       </c>
@@ -842,7 +1114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D26" s="1">
         <v>2</v>
       </c>
@@ -854,9 +1126,1022 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" ht="18" x14ac:dyDescent="0.25">
       <c r="E28" s="5">
         <v>6500407</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="1">
+        <f>33.42*50*10</f>
+        <v>16710</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="1">
+        <v>100</v>
+      </c>
+      <c r="I38" s="1">
+        <v>100</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="1">
+        <v>200</v>
+      </c>
+      <c r="J39" s="1">
+        <v>200</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="7">
+        <v>10000</v>
+      </c>
+      <c r="I41" s="7">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F47" s="8">
+        <v>43799</v>
+      </c>
+      <c r="G47" s="1">
+        <v>100</v>
+      </c>
+      <c r="H47" s="1">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F48" s="8">
+        <v>43830</v>
+      </c>
+      <c r="G48" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F49" s="8">
+        <v>43861</v>
+      </c>
+      <c r="G49" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F50" s="8">
+        <v>43890</v>
+      </c>
+      <c r="G50" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F51" s="8">
+        <v>43921</v>
+      </c>
+      <c r="G51" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F52" s="8">
+        <v>43951</v>
+      </c>
+      <c r="G52" s="1">
+        <v>100</v>
+      </c>
+      <c r="H52" s="1">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F53" s="8">
+        <v>43982</v>
+      </c>
+      <c r="G53" s="1">
+        <v>100</v>
+      </c>
+      <c r="H53" s="1">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F54" s="8">
+        <v>44012</v>
+      </c>
+      <c r="G54" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F55" s="8">
+        <v>44043</v>
+      </c>
+      <c r="G55" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F56" s="8">
+        <v>44074</v>
+      </c>
+      <c r="G56" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F57" s="8">
+        <v>44104</v>
+      </c>
+      <c r="G57" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F58" s="8">
+        <v>44135</v>
+      </c>
+      <c r="G58" s="1">
+        <v>100</v>
+      </c>
+      <c r="H58" s="1">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>100</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>-100</v>
+      </c>
+      <c r="H64" s="1">
+        <v>100</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>100</v>
+      </c>
+      <c r="H65" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>-100</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F70" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>100</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>100</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F76" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>150</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="6:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>-100</v>
+      </c>
+      <c r="H78" s="1">
+        <v>100</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>-50</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F82" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>150</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>-100</v>
+      </c>
+      <c r="H84" s="1">
+        <v>100</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1">
+        <v>100</v>
+      </c>
+      <c r="H85" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>-150</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F88" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>150</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>-100</v>
+      </c>
+      <c r="H90" s="1">
+        <v>100</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1">
+        <v>100</v>
+      </c>
+      <c r="H91" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>-150</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>150</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E96" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E97" s="7">
+        <v>100</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="7">
+        <v>99</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="7">
+        <v>-99</v>
+      </c>
+      <c r="H98" s="1">
+        <v>99</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G99" s="7">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E103" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I104" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E105" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G105" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I105" s="10">
+        <v>44054</v>
+      </c>
+      <c r="J105" s="10">
+        <v>44062</v>
+      </c>
+    </row>
+    <row r="106" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G106" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G107" s="1">
+        <f>G106*8</f>
+        <v>4.88</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I109" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J109" s="1">
+        <v>12.88</v>
+      </c>
+      <c r="K109" s="1">
+        <v>-12.88</v>
+      </c>
+    </row>
+    <row r="110" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I110" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J110" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K110" s="1">
+        <v>-18.440000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I111" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J111" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="K111" s="1">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="113" spans="5:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="E113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="5:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="F114" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I114" s="10">
+        <v>44185</v>
+      </c>
+      <c r="J114" s="10">
+        <v>43831</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L114" s="10">
+        <v>43861</v>
+      </c>
+      <c r="M114" s="10">
+        <f>L114+15</f>
+        <v>43876</v>
+      </c>
+      <c r="N114" s="10">
+        <f>M114+45</f>
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="115" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G115" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I115" s="10">
+        <v>43850</v>
+      </c>
+      <c r="J115" s="10">
+        <v>43862</v>
+      </c>
+      <c r="L115" s="10">
+        <v>43892</v>
+      </c>
+      <c r="M115" s="10">
+        <f>L115+15</f>
+        <v>43907</v>
+      </c>
+      <c r="N115" s="10">
+        <f t="shared" ref="N115:N116" si="0">M115+45</f>
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="116" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G116" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I116" s="10">
+        <v>43881</v>
+      </c>
+      <c r="J116" s="10">
+        <v>43891</v>
+      </c>
+      <c r="L116" s="10">
+        <v>43921</v>
+      </c>
+      <c r="M116" s="10">
+        <f>L116+15</f>
+        <v>43936</v>
+      </c>
+      <c r="N116" s="10">
+        <f t="shared" si="0"/>
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="117" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K117" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="K118" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I120" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H121" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I121" s="1">
+        <v>100</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>100</v>
+      </c>
+      <c r="L121" s="1">
+        <v>-100</v>
+      </c>
+      <c r="M121" s="1">
+        <f>I121+L121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H122" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I122" s="1">
+        <v>100</v>
+      </c>
+      <c r="J122" s="1">
+        <v>100</v>
+      </c>
+      <c r="K122" s="1">
+        <v>200</v>
+      </c>
+      <c r="L122" s="1">
+        <v>-100</v>
+      </c>
+      <c r="M122" s="1">
+        <f t="shared" ref="M122:M123" si="1">I122+L122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H123" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I123" s="1">
+        <v>100</v>
+      </c>
+      <c r="J123" s="1">
+        <v>200</v>
+      </c>
+      <c r="K123" s="1">
+        <v>300</v>
+      </c>
+      <c r="L123" s="1">
+        <v>-100</v>
+      </c>
+      <c r="M123" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="5:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="H125" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="5:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="H126" s="10">
+        <v>43922</v>
+      </c>
+      <c r="I126" s="7">
+        <v>200</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M126" s="7">
+        <v>200</v>
+      </c>
+      <c r="N126" s="7">
+        <v>-200</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="5:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="K127" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M127" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N127" s="7">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="128" spans="5:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="K128" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M128" s="7">
+        <v>300</v>
+      </c>
+      <c r="N128" s="7">
+        <v>-300</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="8:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I131" s="7">
+        <v>100</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -864,4 +2149,16 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>